--- a/waga/20241113_waga.xlsx
+++ b/waga/20241113_waga.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lata" sheetId="1" state="visible" r:id="rId2"/>
@@ -1144,10 +1144,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0322382796028673"/>
-          <c:y val="0.0245318146971854"/>
-          <c:w val="0.959251734580442"/>
-          <c:h val="0.869346183331508"/>
+          <c:x val="0.0322395154488998"/>
+          <c:y val="0.0245345016429354"/>
+          <c:w val="0.959211837767385"/>
+          <c:h val="0.869222343921139"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1589,11 +1589,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="33403492"/>
-        <c:axId val="9608347"/>
+        <c:axId val="10385871"/>
+        <c:axId val="4814521"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33403492"/>
+        <c:axId val="10385871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1659,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9608347"/>
+        <c:crossAx val="4814521"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +1667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9608347"/>
+        <c:axId val="4814521"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="87"/>
@@ -1721,7 +1721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33403492"/>
+        <c:crossAx val="10385871"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1819,10 +1819,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0287116188139686"/>
-          <c:y val="0.0225605081590187"/>
-          <c:w val="0.963851726913788"/>
-          <c:h val="0.875698171065601"/>
+          <c:x val="0.0287127194663804"/>
+          <c:y val="0.0225629791894852"/>
+          <c:w val="0.963812006440236"/>
+          <c:h val="0.875575027382256"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2252,11 +2252,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="80145847"/>
-        <c:axId val="67983719"/>
+        <c:axId val="72621264"/>
+        <c:axId val="18512136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80145847"/>
+        <c:axId val="72621264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2288,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67983719"/>
+        <c:crossAx val="18512136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +2296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67983719"/>
+        <c:axId val="18512136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2340,7 +2340,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80145847"/>
+        <c:crossAx val="72621264"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2438,10 +2438,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0287116188139686"/>
-          <c:y val="0.0245318146971854"/>
-          <c:w val="0.963851726913788"/>
-          <c:h val="0.873726864527434"/>
+          <c:x val="0.0287127194663804"/>
+          <c:y val="0.0245345016429354"/>
+          <c:w val="0.963812006440236"/>
+          <c:h val="0.873603504928806"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2883,11 +2883,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="8314470"/>
-        <c:axId val="40887490"/>
+        <c:axId val="87156507"/>
+        <c:axId val="6659178"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8314470"/>
+        <c:axId val="87156507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +2953,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40887490"/>
+        <c:crossAx val="6659178"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2961,7 +2961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40887490"/>
+        <c:axId val="6659178"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="87"/>
@@ -3015,7 +3015,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8314470"/>
+        <c:crossAx val="87156507"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3524,11 +3524,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="94146987"/>
-        <c:axId val="57767660"/>
+        <c:axId val="26780677"/>
+        <c:axId val="70157870"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94146987"/>
+        <c:axId val="26780677"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -3572,14 +3572,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57767660"/>
+        <c:crossAx val="70157870"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57767660"/>
+        <c:axId val="70157870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="86"/>
@@ -3632,7 +3632,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94146987"/>
+        <c:crossAx val="26780677"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3730,10 +3730,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0287116188139686"/>
-          <c:y val="0.0225605081590187"/>
-          <c:w val="0.963890060183233"/>
-          <c:h val="0.875698171065601"/>
+          <c:x val="0.0287127194663804"/>
+          <c:y val="0.0225629791894852"/>
+          <c:w val="0.963850341179177"/>
+          <c:h val="0.875575027382256"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4047,11 +4047,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64065043"/>
-        <c:axId val="75347188"/>
+        <c:axId val="54150435"/>
+        <c:axId val="25957772"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64065043"/>
+        <c:axId val="54150435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4083,7 +4083,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75347188"/>
+        <c:crossAx val="25957772"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4091,7 +4091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75347188"/>
+        <c:axId val="25957772"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -4135,7 +4135,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64065043"/>
+        <c:crossAx val="54150435"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4312,11 +4312,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="70776931"/>
-        <c:axId val="27976436"/>
+        <c:axId val="38523074"/>
+        <c:axId val="69792629"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70776931"/>
+        <c:axId val="38523074"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4358,7 +4358,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27976436"/>
+        <c:crossAx val="69792629"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4366,7 +4366,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27976436"/>
+        <c:axId val="69792629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -4419,7 +4419,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70776931"/>
+        <c:crossAx val="38523074"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4572,11 +4572,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="36934287"/>
-        <c:axId val="26637160"/>
+        <c:axId val="41214118"/>
+        <c:axId val="56747525"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36934287"/>
+        <c:axId val="41214118"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4608,7 +4608,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26637160"/>
+        <c:crossAx val="56747525"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4616,7 +4616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26637160"/>
+        <c:axId val="56747525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -4660,7 +4660,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36934287"/>
+        <c:crossAx val="41214118"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -4725,9 +4725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>745920</xdr:colOff>
+      <xdr:colOff>745560</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4736,7 +4736,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1937880" y="7351920"/>
-        <a:ext cx="9390960" cy="3286800"/>
+        <a:ext cx="9390600" cy="3286440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4760,9 +4760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
+      <xdr:colOff>535320</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4771,7 +4771,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1669680" y="10821240"/>
-        <a:ext cx="9390960" cy="3286800"/>
+        <a:ext cx="9390600" cy="3286440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4790,9 +4790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>552240</xdr:colOff>
+      <xdr:colOff>551880</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4801,7 +4801,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1686240" y="7234560"/>
-        <a:ext cx="9390960" cy="3286800"/>
+        <a:ext cx="9390600" cy="3286440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4825,9 +4825,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>938160</xdr:colOff>
+      <xdr:colOff>937800</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4836,7 +4836,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1718280" y="7558920"/>
-        <a:ext cx="9878400" cy="2998800"/>
+        <a:ext cx="9878040" cy="2998440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4855,9 +4855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>685440</xdr:colOff>
+      <xdr:colOff>685080</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4866,7 +4866,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1953000" y="10698120"/>
-        <a:ext cx="9390960" cy="3286800"/>
+        <a:ext cx="9390600" cy="3286440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4890,9 +4890,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>787680</xdr:colOff>
+      <xdr:colOff>787320</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4901,7 +4901,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1545120" y="8001000"/>
-        <a:ext cx="9767520" cy="1908000"/>
+        <a:ext cx="9767160" cy="1907640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4925,9 +4925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1017360</xdr:colOff>
+      <xdr:colOff>1017000</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4936,7 +4936,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="433800" y="7494840"/>
-        <a:ext cx="9223200" cy="3028320"/>
+        <a:ext cx="9223560" cy="3027960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4960,7 +4960,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.5"/>
@@ -5180,11 +5180,11 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21"/>
@@ -5262,9 +5262,7 @@
       <c r="L2" s="26" t="n">
         <v>74.15</v>
       </c>
-      <c r="M2" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="n">
@@ -6352,9 +6350,9 @@
         <f aca="false">AVERAGE(L2:L32)</f>
         <v>73.6208333333333</v>
       </c>
-      <c r="M35" s="45" t="n">
+      <c r="M35" s="45" t="e">
         <f aca="false">AVERAGE(M2:M32)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6458,9 +6456,9 @@
         <f aca="false">_xlfn.STDEV.P(L2:L32)</f>
         <v>0.450212141353632</v>
       </c>
-      <c r="M37" s="49" t="n">
+      <c r="M37" s="49" t="e">
         <f aca="false">_xlfn.STDEV.P(M2:M32)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6564,9 +6562,9 @@
         <f aca="false">L35-K35</f>
         <v>-0.55416666666666</v>
       </c>
-      <c r="M39" s="48" t="n">
+      <c r="M39" s="48" t="e">
         <f aca="false">M35-L35</f>
-        <v>-73.6208333333333</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6617,9 +6615,9 @@
         <f aca="false">L35/(1.69*1.69)</f>
         <v>25.7767001622259</v>
       </c>
-      <c r="M40" s="51" t="n">
+      <c r="M40" s="51" t="e">
         <f aca="false">M35/(1.69*1.69)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -6668,7 +6666,7 @@
       <selection pane="topLeft" activeCell="N34" activeCellId="0" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.79"/>
   </cols>
@@ -8465,7 +8463,7 @@
       <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.79"/>
   </cols>
@@ -10299,14 +10297,14 @@
   </sheetPr>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="10.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12221,7 +12219,7 @@
       <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="83" width="14.61"/>
@@ -14087,7 +14085,7 @@
       <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="2" style="0" width="10.46"/>
@@ -15922,7 +15920,7 @@
       <selection pane="topLeft" activeCell="N34" activeCellId="0" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.84"/>
@@ -17608,7 +17606,7 @@
       <selection pane="topLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="21" width="8.37"/>
